--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         <v>93500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43314,6 +43314,43 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1548800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>1548800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>791100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>791100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>159000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>159000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>50100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>50100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1058600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,41 @@
         <v>1058600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>532600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,41 @@
         <v>532600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>102500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,41 @@
         <v>102500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43666,6 +43666,76 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>277000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,76 @@
         <v>277000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>61200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,41 @@
         <v>61200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43876,6 +43876,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>25600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>270100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,76 @@
         <v>270100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>291000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,41 @@
         <v>291000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>25400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79821,6 +79821,41 @@
         <v>25400</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>127500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79856,6 +79856,41 @@
         <v>127500</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>310300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79891,6 +79891,43 @@
         <v>310300</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2264" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79928,6 +79928,41 @@
         </is>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2265"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79963,6 +79963,43 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80000,6 +80000,41 @@
         </is>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>37500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2267"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80035,6 +80035,41 @@
         <v>37500</v>
       </c>
     </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80070,6 +80070,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2269"/>
+  <dimension ref="A1:I2270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80105,6 +80105,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2270"/>
+  <dimension ref="A1:I2271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80142,6 +80142,41 @@
         </is>
       </c>
     </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>202000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2271"/>
+  <dimension ref="A1:I2272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80177,6 +80177,43 @@
         <v>202000</v>
       </c>
     </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2272"/>
+  <dimension ref="A1:I2273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80214,6 +80214,43 @@
         </is>
       </c>
     </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80251,6 +80251,43 @@
         </is>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80288,6 +80288,41 @@
         </is>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>51600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7183.xlsx
+++ b/data/7183.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80323,6 +80323,41 @@
         <v>51600</v>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>IQZAN</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
